--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_6_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_6_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.51118998388256</v>
+        <v>4479.726806792663</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.51118998388256</v>
+        <v>4479.726806792663</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55157.1725569131</v>
+        <v>3859617.270879091</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55157.1725569131</v>
+        <v>3859617.270879091</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494910768.952075</v>
+        <v>57746887.70108172</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13642.11998042318</v>
+        <v>1329780.757731751</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26696.87442881074</v>
+        <v>2557711.769714375</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39751.43592414127</v>
+        <v>3785604.384038656</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55405.81051446885</v>
+        <v>4809814.735632607</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69835.52551252938</v>
+        <v>5962852.710049587</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84251.60258611203</v>
+        <v>7116971.851367768</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98667.67965969468</v>
+        <v>8271090.992685947</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113083.7567332774</v>
+        <v>9425210.134004127</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128719.9078408723</v>
+        <v>10451444.73038868</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>143148.1756910053</v>
+        <v>11604444.30714731</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157562.9985697175</v>
+        <v>12758563.44846549</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>171977.8214484297</v>
+        <v>13912682.58978368</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>186392.6443271419</v>
+        <v>15066801.73110187</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>200821.105130332</v>
+        <v>16219839.70551886</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>218261.2377742354</v>
+        <v>17015026.62262881</v>
       </c>
     </row>
   </sheetData>
